--- a/data/Input.xlsx
+++ b/data/Input.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10575" windowHeight="6495"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H20"/>
 </workbook>
 </file>
 
@@ -375,7 +376,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Input.xlsx
+++ b/data/Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10575" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10575" windowHeight="3630"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="A1:H10"/>
 </workbook>
 </file>
 
@@ -28,13 +28,13 @@
     <t>HOMEPAGETITTLE</t>
   </si>
   <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
     <t>actiTime-Enter-Time-track</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,13 +398,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -416,7 +416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
